--- a/Cloudlab.xlsx
+++ b/Cloudlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balasubramaniam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30354D0-A1B4-4864-8EC0-CEAC9335816A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C263D-10D2-4382-A397-D6943DD6933F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>SL NO.</t>
   </si>
@@ -244,13 +244,16 @@
   </si>
   <si>
     <t>Aditya</t>
+  </si>
+  <si>
+    <t>https://cloud.cdp.rpsconsulting.in/console/#/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +268,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,9 +297,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,406 +596,412 @@
     <col min="4" max="4" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{BC0D206F-B610-413E-BDC5-57492F060D85}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{BC0D206F-B610-413E-BDC5-57492F060D85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>